--- a/Data/Paper/Ground_truth_data_status.xlsx
+++ b/Data/Paper/Ground_truth_data_status.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0AD420-A1C3-45D4-9D5E-339D732AE912}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC65B1-AAF2-4296-9E95-5F23CFB59251}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2085" windowWidth="13103" windowHeight="10927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1988" yWindow="1763" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
   <si>
     <t>num data files</t>
   </si>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -766,6 +766,9 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -790,6 +793,9 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -856,7 +862,7 @@
         <v>104</v>
       </c>
       <c r="F13">
-        <f>E13/C13*100</f>
+        <f t="shared" ref="F13:F30" si="1">E13/C13*100</f>
         <v>53.608247422680414</v>
       </c>
       <c r="G13" t="s">
@@ -883,7 +889,7 @@
         <v>179</v>
       </c>
       <c r="F14">
-        <f>E14/C14*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G14" t="s">
@@ -910,7 +916,7 @@
         <v>217</v>
       </c>
       <c r="F15">
-        <f>E15/C15*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G15" t="s">
@@ -937,7 +943,7 @@
         <v>304</v>
       </c>
       <c r="F16">
-        <f>E16/C16*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G16" t="s">
@@ -964,7 +970,7 @@
         <v>175</v>
       </c>
       <c r="F17">
-        <f>E17/C17*100</f>
+        <f t="shared" si="1"/>
         <v>53.846153846153847</v>
       </c>
       <c r="G17" t="s">
@@ -991,7 +997,7 @@
         <v>62</v>
       </c>
       <c r="F18">
-        <f>E18/C18*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G18" t="s">
@@ -1018,7 +1024,7 @@
         <v>160</v>
       </c>
       <c r="F19">
-        <f>E19/C19*100</f>
+        <f t="shared" si="1"/>
         <v>36.117381489841989</v>
       </c>
       <c r="G19" t="s">
@@ -1045,7 +1051,7 @@
         <v>158</v>
       </c>
       <c r="F20">
-        <f>E20/C20*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G20" t="s">
@@ -1069,7 +1075,7 @@
         <v>58</v>
       </c>
       <c r="F21">
-        <f>E21/C21*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G21" t="s">
@@ -1093,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="F22">
-        <f>E22/C22*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G22" t="s">
@@ -1117,7 +1123,7 @@
         <v>116</v>
       </c>
       <c r="F23">
-        <f>E23/C23*100</f>
+        <f t="shared" si="1"/>
         <v>21.481481481481481</v>
       </c>
       <c r="G23" t="s">
@@ -1141,7 +1147,7 @@
         <v>86</v>
       </c>
       <c r="F24">
-        <f>E24/C24*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G24" t="s">
@@ -1165,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="F25">
-        <f>E25/C25*100</f>
+        <f t="shared" si="1"/>
         <v>3.0991735537190084</v>
       </c>
       <c r="G25" t="s">
@@ -1192,7 +1198,7 @@
         <v>46</v>
       </c>
       <c r="F26">
-        <f>E26/C26*100</f>
+        <f t="shared" si="1"/>
         <v>10.109890109890109</v>
       </c>
       <c r="G26" t="s">
@@ -1219,7 +1225,7 @@
         <v>71</v>
       </c>
       <c r="F27">
-        <f>E27/C27*100</f>
+        <f t="shared" si="1"/>
         <v>12.178387650085764</v>
       </c>
       <c r="G27" t="s">
@@ -1246,7 +1252,7 @@
         <v>88</v>
       </c>
       <c r="F28">
-        <f>E28/C28*100</f>
+        <f t="shared" si="1"/>
         <v>30.449826989619378</v>
       </c>
       <c r="G28" t="s">
@@ -1273,7 +1279,7 @@
         <v>250</v>
       </c>
       <c r="F29">
-        <f>E29/C29*100</f>
+        <f t="shared" si="1"/>
         <v>6.6418703506907537</v>
       </c>
       <c r="G29" t="s">
@@ -1300,7 +1306,7 @@
         <v>44</v>
       </c>
       <c r="F30">
-        <f>E30/C30*100</f>
+        <f t="shared" si="1"/>
         <v>1.1689691817215728</v>
       </c>
       <c r="G30" t="s">

--- a/Data/Paper/Ground_truth_data_status.xlsx
+++ b/Data/Paper/Ground_truth_data_status.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC65B1-AAF2-4296-9E95-5F23CFB59251}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EDE29-B64A-43BF-A968-853AF610002D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1988" yWindow="1763" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="2115" windowWidth="21818" windowHeight="11032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
   <si>
     <t>num data files</t>
   </si>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -820,6 +820,9 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -843,6 +846,9 @@
       </c>
       <c r="G12" t="s">
         <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">

--- a/Data/Paper/Ground_truth_data_status.xlsx
+++ b/Data/Paper/Ground_truth_data_status.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EDE29-B64A-43BF-A968-853AF610002D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473B1299-516E-44F1-9732-3740600E0FF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2115" windowWidth="21818" windowHeight="11032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="2138" windowWidth="10732" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>num data files</t>
   </si>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1063,6 +1063,9 @@
       <c r="G20" t="s">
         <v>19</v>
       </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -1087,6 +1090,9 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -1111,6 +1117,9 @@
       <c r="G22" t="s">
         <v>19</v>
       </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
@@ -1135,6 +1144,9 @@
       <c r="G23" t="s">
         <v>18</v>
       </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
@@ -1158,6 +1170,9 @@
       </c>
       <c r="G24" t="s">
         <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">

--- a/Data/Paper/Ground_truth_data_status.xlsx
+++ b/Data/Paper/Ground_truth_data_status.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473B1299-516E-44F1-9732-3740600E0FF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A3551-37D2-4450-96D4-F4FFAC8FEA7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="2138" windowWidth="10732" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1013" yWindow="727" windowWidth="13605" windowHeight="8326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,26 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
-  <si>
-    <t>num data files</t>
-  </si>
-  <si>
-    <t>portion completed</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
   <si>
     <t>completely analyzed</t>
   </si>
   <si>
-    <t>machine assisted (r = after raven, m= after model, n = no)</t>
-  </si>
-  <si>
-    <t>Mooring</t>
-  </si>
-  <si>
     <t>AW15_AU_BS3</t>
   </si>
   <si>
@@ -61,9 +46,6 @@
     <t>AW12_AU_BS3</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>137:224</t>
   </si>
   <si>
@@ -88,9 +70,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>BS14_AU_04</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t>1464:1507</t>
   </si>
   <si>
-    <t>perc analyzed</t>
-  </si>
-  <si>
     <t>num completed</t>
   </si>
   <si>
@@ -194,6 +170,72 @@
   </si>
   <si>
     <t>301:417</t>
+  </si>
+  <si>
+    <t>Mooring ID</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>BS3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>BS2</t>
+  </si>
+  <si>
+    <t>BS1</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Files completed</t>
+  </si>
+  <si>
+    <t>Analysis start</t>
+  </si>
+  <si>
+    <t>Analysis end</t>
+  </si>
+  <si>
+    <t>*machine assisted (r = after raven, m= after model, n = no)</t>
+  </si>
+  <si>
+    <t>Selection protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand </t>
+  </si>
+  <si>
+    <t>Gunshot</t>
+  </si>
+  <si>
+    <t>Upsweep</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Call type</t>
+  </si>
+  <si>
+    <t># high graded files</t>
+  </si>
+  <si>
+    <t>% analyzed</t>
+  </si>
+  <si>
+    <t>Data hours</t>
+  </si>
+  <si>
+    <t>Machine assisted*</t>
   </si>
 </sst>
 </file>
@@ -229,9 +271,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,829 +556,1226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="2" max="2" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1452</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="3">
+        <f>L2/C2*100</f>
+        <v>3.0991735537190084</v>
+      </c>
+      <c r="E2" s="3">
+        <f>9000/3600</f>
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42314</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42322</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2">
         <v>45</v>
       </c>
-      <c r="F2">
-        <f>E2/C2*100</f>
-        <v>3.0991735537190084</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>455</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="3">
+        <f>L3/C3*100</f>
+        <v>10.109890109890109</v>
+      </c>
+      <c r="E3" s="3">
+        <f>9525/3600</f>
+        <v>2.6458333333333335</v>
+      </c>
+      <c r="F3" s="2">
+        <v>41079</v>
+      </c>
+      <c r="G3" s="2">
+        <v>41110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3">
         <v>46</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F12" si="0">E3/C3*100</f>
-        <v>10.109890109890109</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>583</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <f>L4/C4*100</f>
+        <v>12.178387650085764</v>
+      </c>
+      <c r="E4" s="3">
+        <f>(14250)/60/60</f>
+        <v>3.9583333333333335</v>
+      </c>
+      <c r="F4" s="2">
+        <v>41948</v>
+      </c>
+      <c r="G4" s="2">
+        <v>41977</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4">
         <v>71</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>12.178387650085764</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>289</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <f>L5/C5*100</f>
+        <v>30.449826989619378</v>
+      </c>
+      <c r="E5" s="3">
+        <f>17250/3600</f>
+        <v>4.791666666666667</v>
+      </c>
+      <c r="F5" s="2">
+        <v>41866</v>
+      </c>
+      <c r="G5" s="2">
+        <v>41893</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5">
         <v>88</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>30.449826989619378</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>3764</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <f>L6/C6*100</f>
+        <v>6.6418703506907537</v>
+      </c>
+      <c r="E6" s="3">
+        <f>(49575)/60/60</f>
+        <v>13.770833333333334</v>
+      </c>
+      <c r="F6" s="2">
+        <v>41132</v>
+      </c>
+      <c r="G6" s="2">
+        <v>41147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6">
         <v>250</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>6.6418703506907537</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>3764</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <f>L7/C7*100</f>
+        <v>1.1689691817215728</v>
+      </c>
+      <c r="E7" s="3">
+        <f>(8550)/60/60</f>
+        <v>2.375</v>
+      </c>
+      <c r="F7" s="2">
+        <v>41189</v>
+      </c>
+      <c r="G7" s="2">
+        <v>41193</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7">
         <v>44</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.1689691817215728</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>583</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <f>L8/C8*100</f>
+        <v>10.291595197255575</v>
+      </c>
+      <c r="E8" s="3">
+        <f>(12225)/60/60</f>
+        <v>3.3958333333333335</v>
+      </c>
+      <c r="F8" s="2">
+        <v>41994</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8">
         <v>60</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>10.291595197255575</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>391</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <f>L9/C9*100</f>
+        <v>23.017902813299234</v>
+      </c>
+      <c r="E9" s="3">
+        <f>(14325)/60/60</f>
+        <v>3.9791666666666665</v>
+      </c>
+      <c r="F9" s="2">
+        <v>42284</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42286</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9">
         <v>90</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>23.017902813299234</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>576</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3">
+        <f>L10/C10*100</f>
+        <v>16.145833333333336</v>
+      </c>
+      <c r="E10" s="3">
+        <f>(19275)/60/60</f>
+        <v>5.354166666666667</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42707</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42917</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10">
         <v>93</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>16.145833333333336</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>1383</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3">
+        <f>L11/C11*100</f>
+        <v>4.1937816341287055</v>
+      </c>
+      <c r="E11" s="3">
+        <f>11775/3600</f>
+        <v>3.2708333333333335</v>
+      </c>
+      <c r="F11" s="2">
+        <v>41172</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41175</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11">
         <v>58</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>4.1937816341287055</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>166</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <f>L12/C12*100</f>
+        <v>44.578313253012048</v>
+      </c>
+      <c r="E12" s="3">
+        <f>14925/3600</f>
+        <v>4.145833333333333</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42096</v>
+      </c>
+      <c r="G12" s="2">
+        <v>42246</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12">
         <v>74</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>44.578313253012048</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>194</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3">
+        <f>L13/C13*100</f>
+        <v>53.608247422680414</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5.875</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42177</v>
+      </c>
+      <c r="G13" s="2">
+        <v>42225</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13">
         <v>104</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F30" si="1">E13/C13*100</f>
-        <v>53.608247422680414</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>179</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <f>L14/C14*100</f>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10.083333333333334</v>
+      </c>
+      <c r="F14" s="2">
+        <v>41975</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42267</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14">
         <v>179</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>217</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="3">
+        <f>L15/C15*100</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12.104166666666666</v>
+      </c>
+      <c r="F15" s="2">
+        <v>41132</v>
+      </c>
+      <c r="G15" s="2">
+        <v>41529</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15">
         <v>217</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>304</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="3">
+        <f>L16/C16*100</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>16.854166666666668</v>
+      </c>
+      <c r="F16" s="2">
+        <v>41535</v>
+      </c>
+      <c r="G16" s="2">
+        <v>41916</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16">
         <v>304</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>325</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="3">
+        <f>L17/C17*100</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42507</v>
+      </c>
+      <c r="G17" s="2">
+        <v>42621</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17">
         <v>175</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>53.846153846153847</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>62</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="3">
+        <f>L18/C18*100</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.4375</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42278</v>
+      </c>
+      <c r="G18" s="2">
+        <v>42362</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18">
         <v>62</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>443</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="3">
+        <f>L19/C19*100</f>
+        <v>36.117381489841989</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
+        <v>41932</v>
+      </c>
+      <c r="G19" s="2">
+        <v>42181</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19">
         <v>160</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>36.117381489841989</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>158</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3">
+        <f>L20/C20*100</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9.0625</v>
+      </c>
+      <c r="F20" s="2">
+        <v>42639</v>
+      </c>
+      <c r="G20" s="2">
+        <v>42699</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20">
+        <v>158</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
-      </c>
-      <c r="E20">
-        <v>158</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
       </c>
       <c r="C21">
         <v>58</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="3">
+        <f>L21/C21*100</f>
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.1458333333333335</v>
+      </c>
+      <c r="F21" s="2">
+        <v>41458</v>
+      </c>
+      <c r="G21" s="2">
+        <v>41473</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21">
         <v>58</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>13</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="3">
+        <f>L22/C22*100</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42642</v>
+      </c>
+      <c r="G22" s="2">
+        <v>42712</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22">
         <v>13</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>540</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="3">
+        <f>L23/C23*100</f>
+        <v>21.481481481481481</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6.5625</v>
+      </c>
+      <c r="F23" s="2">
+        <v>42597</v>
+      </c>
+      <c r="G23" s="2">
+        <v>42608</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23">
         <v>116</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>21.481481481481481</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>86</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3">
+        <f>L24/C24*100</f>
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.708333333333333</v>
+      </c>
+      <c r="F24" s="2">
+        <v>42206</v>
+      </c>
+      <c r="G24" s="2">
+        <v>42272</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24">
         <v>86</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1452</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3">
+        <f>L25/C25*100</f>
+        <v>3.0991735537190084</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25">
         <v>45</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>3.0991735537190084</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>455</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3">
+        <f>L26/C26*100</f>
+        <v>10.109890109890109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26">
         <v>46</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>10.109890109890109</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>583</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3">
+        <f>L27/C27*100</f>
+        <v>12.178387650085764</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27">
         <v>71</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>12.178387650085764</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>289</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="3">
+        <f>L28/C28*100</f>
+        <v>30.449826989619378</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28">
         <v>88</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>30.449826989619378</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>3764</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="3">
+        <f>L29/C29*100</f>
+        <v>6.6418703506907537</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29">
         <v>250</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>6.6418703506907537</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>3764</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="3">
+        <f>L30/C30*100</f>
+        <v>1.1689691817215728</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30">
         <v>44</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>1.1689691817215728</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Paper/Ground_truth_data_status.xlsx
+++ b/Data/Paper/Ground_truth_data_status.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A3551-37D2-4450-96D4-F4FFAC8FEA7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D952644-F648-4912-A30C-BD1FC2969639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1013" yWindow="727" windowWidth="13605" windowHeight="8326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="353" yWindow="353" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="72">
   <si>
     <t>completely analyzed</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Machine assisted*</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>gs</t>
   </si>
 </sst>
 </file>
@@ -556,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -574,7 +580,7 @@
     <col min="15" max="15" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -615,7 +621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -626,7 +632,7 @@
         <v>1452</v>
       </c>
       <c r="D2" s="3">
-        <f>L2/C2*100</f>
+        <f t="shared" ref="D2:D30" si="0">L2/C2*100</f>
         <v>3.0991735537190084</v>
       </c>
       <c r="E2" s="3">
@@ -658,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -669,7 +675,7 @@
         <v>455</v>
       </c>
       <c r="D3" s="3">
-        <f>L3/C3*100</f>
+        <f t="shared" si="0"/>
         <v>10.109890109890109</v>
       </c>
       <c r="E3" s="3">
@@ -701,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -712,7 +718,7 @@
         <v>583</v>
       </c>
       <c r="D4" s="3">
-        <f>L4/C4*100</f>
+        <f t="shared" si="0"/>
         <v>12.178387650085764</v>
       </c>
       <c r="E4" s="3">
@@ -747,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -758,7 +764,7 @@
         <v>289</v>
       </c>
       <c r="D5" s="3">
-        <f>L5/C5*100</f>
+        <f t="shared" si="0"/>
         <v>30.449826989619378</v>
       </c>
       <c r="E5" s="3">
@@ -790,7 +796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -801,7 +807,7 @@
         <v>3764</v>
       </c>
       <c r="D6" s="3">
-        <f>L6/C6*100</f>
+        <f t="shared" si="0"/>
         <v>6.6418703506907537</v>
       </c>
       <c r="E6" s="3">
@@ -836,7 +842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -847,7 +853,7 @@
         <v>3764</v>
       </c>
       <c r="D7" s="3">
-        <f>L7/C7*100</f>
+        <f t="shared" si="0"/>
         <v>1.1689691817215728</v>
       </c>
       <c r="E7" s="3">
@@ -879,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -890,7 +896,7 @@
         <v>583</v>
       </c>
       <c r="D8" s="3">
-        <f>L8/C8*100</f>
+        <f t="shared" si="0"/>
         <v>10.291595197255575</v>
       </c>
       <c r="E8" s="3">
@@ -922,7 +928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -933,7 +939,7 @@
         <v>391</v>
       </c>
       <c r="D9" s="3">
-        <f>L9/C9*100</f>
+        <f t="shared" si="0"/>
         <v>23.017902813299234</v>
       </c>
       <c r="E9" s="3">
@@ -965,7 +971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -976,7 +982,7 @@
         <v>576</v>
       </c>
       <c r="D10" s="3">
-        <f>L10/C10*100</f>
+        <f t="shared" si="0"/>
         <v>16.145833333333336</v>
       </c>
       <c r="E10" s="3">
@@ -1008,7 +1014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>1383</v>
       </c>
       <c r="D11" s="3">
-        <f>L11/C11*100</f>
+        <f t="shared" si="0"/>
         <v>4.1937816341287055</v>
       </c>
       <c r="E11" s="3">
@@ -1051,7 +1057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>166</v>
       </c>
       <c r="D12" s="3">
-        <f>L12/C12*100</f>
+        <f t="shared" si="0"/>
         <v>44.578313253012048</v>
       </c>
       <c r="E12" s="3">
@@ -1094,7 +1100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>194</v>
       </c>
       <c r="D13" s="3">
-        <f>L13/C13*100</f>
+        <f t="shared" si="0"/>
         <v>53.608247422680414</v>
       </c>
       <c r="E13" s="3">
@@ -1136,7 +1142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>179</v>
       </c>
       <c r="D14" s="3">
-        <f>L14/C14*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E14" s="3">
@@ -1178,7 +1184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>217</v>
       </c>
       <c r="D15" s="3">
-        <f>L15/C15*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E15" s="3">
@@ -1219,8 +1225,15 @@
       <c r="O15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="3">
+        <f>SUM(E2:E12)</f>
+        <v>50.187500000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1231,7 +1244,7 @@
         <v>304</v>
       </c>
       <c r="D16" s="3">
-        <f>L16/C16*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E16" s="3">
@@ -1260,6 +1273,13 @@
       </c>
       <c r="O16" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="3">
+        <f>SUM(E13:E24)</f>
+        <v>91.416666666666657</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
@@ -1273,7 +1293,7 @@
         <v>325</v>
       </c>
       <c r="D17" s="3">
-        <f>L17/C17*100</f>
+        <f t="shared" si="0"/>
         <v>53.846153846153847</v>
       </c>
       <c r="E17" s="3">
@@ -1315,7 +1335,7 @@
         <v>62</v>
       </c>
       <c r="D18" s="3">
-        <f>L18/C18*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E18" s="3">
@@ -1357,7 +1377,7 @@
         <v>443</v>
       </c>
       <c r="D19" s="3">
-        <f>L19/C19*100</f>
+        <f t="shared" si="0"/>
         <v>36.117381489841989</v>
       </c>
       <c r="E19" s="3">
@@ -1399,7 +1419,7 @@
         <v>158</v>
       </c>
       <c r="D20" s="3">
-        <f>L20/C20*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E20" s="3">
@@ -1441,7 +1461,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="3">
-        <f>L21/C21*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E21" s="3">
@@ -1483,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="3">
-        <f>L22/C22*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E22" s="3">
@@ -1525,7 +1545,7 @@
         <v>540</v>
       </c>
       <c r="D23" s="3">
-        <f>L23/C23*100</f>
+        <f t="shared" si="0"/>
         <v>21.481481481481481</v>
       </c>
       <c r="E23" s="3">
@@ -1567,7 +1587,7 @@
         <v>86</v>
       </c>
       <c r="D24" s="3">
-        <f>L24/C24*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E24" s="3">
@@ -1609,7 +1629,7 @@
         <v>1452</v>
       </c>
       <c r="D25" s="3">
-        <f>L25/C25*100</f>
+        <f t="shared" si="0"/>
         <v>3.0991735537190084</v>
       </c>
       <c r="H25" t="s">
@@ -1639,7 +1659,7 @@
         <v>455</v>
       </c>
       <c r="D26" s="3">
-        <f>L26/C26*100</f>
+        <f t="shared" si="0"/>
         <v>10.109890109890109</v>
       </c>
       <c r="H26" t="s">
@@ -1669,7 +1689,7 @@
         <v>583</v>
       </c>
       <c r="D27" s="3">
-        <f>L27/C27*100</f>
+        <f t="shared" si="0"/>
         <v>12.178387650085764</v>
       </c>
       <c r="H27" t="s">
@@ -1699,7 +1719,7 @@
         <v>289</v>
       </c>
       <c r="D28" s="3">
-        <f>L28/C28*100</f>
+        <f t="shared" si="0"/>
         <v>30.449826989619378</v>
       </c>
       <c r="H28" t="s">
@@ -1729,7 +1749,7 @@
         <v>3764</v>
       </c>
       <c r="D29" s="3">
-        <f>L29/C29*100</f>
+        <f t="shared" si="0"/>
         <v>6.6418703506907537</v>
       </c>
       <c r="H29" t="s">
@@ -1759,7 +1779,7 @@
         <v>3764</v>
       </c>
       <c r="D30" s="3">
-        <f>L30/C30*100</f>
+        <f t="shared" si="0"/>
         <v>1.1689691817215728</v>
       </c>
       <c r="H30" t="s">

--- a/Data/Paper/Ground_truth_data_status.xlsx
+++ b/Data/Paper/Ground_truth_data_status.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D952644-F648-4912-A30C-BD1FC2969639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="353" yWindow="353" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="21600" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
   <si>
     <t>completely analyzed</t>
   </si>
@@ -242,12 +241,24 @@
   </si>
   <si>
     <t>gs</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand (mooring by hand, randomly selected extent) </t>
+  </si>
+  <si>
+    <t>38:122</t>
+  </si>
+  <si>
+    <t>510:628</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,26 +572,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -621,7 +632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -632,7 +643,7 @@
         <v>1452</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D30" si="0">L2/C2*100</f>
+        <f t="shared" ref="D2:D32" si="0">L2/C2*100</f>
         <v>3.0991735537190084</v>
       </c>
       <c r="E2" s="3">
@@ -664,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -707,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -753,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -796,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -842,7 +853,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -885,7 +896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -928,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -971,7 +982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1014,7 +1025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1057,7 +1068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1100,7 +1111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1142,7 +1153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1184,7 +1195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>50.187500000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1282,7 +1293,7 @@
         <v>91.416666666666657</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1324,7 +1335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1366,7 +1377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1408,7 +1419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1492,7 +1503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1534,7 +1545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1648,7 +1659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1708,7 +1719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1738,7 +1749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1768,7 +1779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1796,6 +1807,92 @@
       </c>
       <c r="O30" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>633</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>13.270142180094787</v>
+      </c>
+      <c r="E31" s="3">
+        <f>51000/3600</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="F31" s="2">
+        <v>41408</v>
+      </c>
+      <c r="G31" s="2">
+        <v>41409</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31">
+        <v>84</v>
+      </c>
+      <c r="M31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>633</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>18.641390205371248</v>
+      </c>
+      <c r="E32">
+        <f>71400/3600</f>
+        <v>19.833333333333332</v>
+      </c>
+      <c r="F32" s="2">
+        <v>41456</v>
+      </c>
+      <c r="G32" s="2">
+        <v>41472</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32">
+        <v>118</v>
+      </c>
+      <c r="M32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Paper/Ground_truth_data_status.xlsx
+++ b/Data/Paper/Ground_truth_data_status.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="101">
   <si>
     <t>completely analyzed</t>
   </si>
@@ -253,6 +253,81 @@
   </si>
   <si>
     <t>510:628</t>
+  </si>
+  <si>
+    <t>343:408</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>CL1</t>
+  </si>
+  <si>
+    <t>AW12_AU_CL1</t>
+  </si>
+  <si>
+    <t>1:384</t>
+  </si>
+  <si>
+    <t>385:523</t>
+  </si>
+  <si>
+    <t>KZ1</t>
+  </si>
+  <si>
+    <t>AW12_AU_KZ1</t>
+  </si>
+  <si>
+    <t>1:34</t>
+  </si>
+  <si>
+    <t>AW13_AU_CL1</t>
+  </si>
+  <si>
+    <t>1:123</t>
+  </si>
+  <si>
+    <t>124:360</t>
+  </si>
+  <si>
+    <t>361:370</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>AW13_AU_PH1</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>NM1</t>
+  </si>
+  <si>
+    <t>AW14_AU_NM1</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>hand (Steph)</t>
+  </si>
+  <si>
+    <t>AW14_AU_PH1</t>
+  </si>
+  <si>
+    <t>1:21</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>CZ11_AU_IC1c</t>
+  </si>
+  <si>
+    <t>IC1</t>
   </si>
 </sst>
 </file>
@@ -573,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,8 +661,9 @@
     <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -643,7 +719,7 @@
         <v>1452</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D32" si="0">L2/C2*100</f>
+        <f t="shared" ref="D2:D43" si="0">L2/C2*100</f>
         <v>3.0991735537190084</v>
       </c>
       <c r="E2" s="3">
@@ -1893,6 +1969,439 @@
       </c>
       <c r="O32" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>633</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>10.268562401263823</v>
+      </c>
+      <c r="E33">
+        <f>39600/3600</f>
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>41428</v>
+      </c>
+      <c r="G33" s="2">
+        <v>41448</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33">
+        <v>65</v>
+      </c>
+      <c r="M33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>523</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>73.422562141491397</v>
+      </c>
+      <c r="F34" s="2">
+        <v>41200</v>
+      </c>
+      <c r="G34" s="2">
+        <v>41213</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34">
+        <v>384</v>
+      </c>
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" t="s">
+        <v>79</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>523</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>26.577437858508606</v>
+      </c>
+      <c r="F35" s="2">
+        <v>41214</v>
+      </c>
+      <c r="G35" s="2">
+        <v>41218</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35">
+        <v>139</v>
+      </c>
+      <c r="M35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" t="s">
+        <v>79</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F36" s="2">
+        <v>41201</v>
+      </c>
+      <c r="G36" s="2">
+        <v>41353</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" t="s">
+        <v>83</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <v>370</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>33.243243243243242</v>
+      </c>
+      <c r="F37" s="2">
+        <v>41547</v>
+      </c>
+      <c r="G37" s="2">
+        <v>41578</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37">
+        <v>123</v>
+      </c>
+      <c r="M37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>85</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <v>370</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>63.78378378378379</v>
+      </c>
+      <c r="F38" s="2">
+        <v>41579</v>
+      </c>
+      <c r="G38" s="2">
+        <v>41584</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38">
+        <v>236</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <v>370</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="F39" s="2">
+        <v>41734</v>
+      </c>
+      <c r="G39" s="2">
+        <v>41530</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F40" s="2">
+        <v>41579</v>
+      </c>
+      <c r="G40" s="2">
+        <v>41579</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" t="s">
+        <v>90</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F41" s="2">
+        <v>41935</v>
+      </c>
+      <c r="G41" s="2">
+        <v>42193</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" t="s">
+        <v>93</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F42" s="2">
+        <v>41919</v>
+      </c>
+      <c r="G42" s="2">
+        <v>41919</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F43" s="2">
+        <v>41930</v>
+      </c>
+      <c r="G43" s="2">
+        <v>41931</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" t="s">
+        <v>99</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
